--- a/TimeTable (First_Year).xlsx
+++ b/TimeTable (First_Year).xlsx
@@ -493,21 +493,21 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GTEC11013 / PR001</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>GTEC11023 / PR001</t>
-        </is>
+          <t>GTEC11023 / PR001 / SL003</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CTEC11052 / CL001</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
+          <t>CTEC11052 / CL001 / SL015</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>GTEC11013 / PR001 / SL013</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -524,7 +524,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>GTEC13032 / PR001</t>
+          <t>GTEC13032 / PR001 / DE001</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -543,10 +543,8 @@
           <t xml:space="preserve"> Wednesday</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>GTEC11023 / PR001</t>
-        </is>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -575,7 +573,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>GTEC11013 / PR001</t>
+          <t>GTEC11013 / PR001 / SL013</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -594,8 +592,10 @@
       <c r="C7" t="n">
         <v>0</v>
       </c>
-      <c r="D7" t="n">
-        <v>0</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>GTEC11023 / PR001 / SL003</t>
+        </is>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -681,19 +681,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GTEC11013 / PR001</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>GTEC11023 / PR001</t>
-        </is>
+          <t>GTEC11023 / PR001 / SL003</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>GTEC11013 / PR001 / SL013</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -707,12 +707,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ETEC11063 / PR002</t>
+          <t>ETEC11063 / PR002 / SL001</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>GTEC13032 / PR001</t>
+          <t>GTEC13032 / PR001 / DE001</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -731,10 +731,8 @@
           <t xml:space="preserve"> Wednesday</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>GTEC11023 / PR001</t>
-        </is>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -760,12 +758,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ETEC11063 / PR002</t>
+          <t>ETEC11063 / PR002 / SL001</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>GTEC11013 / PR001</t>
+          <t>GTEC11013 / PR001 / SL013</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -784,8 +782,10 @@
       <c r="C7" t="n">
         <v>0</v>
       </c>
-      <c r="D7" t="n">
-        <v>0</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>GTEC11023 / PR001 / SL003</t>
+        </is>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CSCI11023 / PR003</t>
+          <t>CSCI11023 / PR003 / SL018</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -917,7 +917,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CSCI11014 / PR003</t>
+          <t>CSCI11014 / PR003 / SL017</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -925,7 +925,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CSCI11023 / PR002</t>
+          <t>CSCI11023 / PR002 / SL018</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -971,7 +971,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CSCI11014 / PR002</t>
+          <t>CSCI11014 / PR002 / SL017</t>
         </is>
       </c>
       <c r="F7" t="n">
